--- a/jyx2/Assets/Mods/JYX2/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/游戏设置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Github\jynew\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\jynew-20230510\jyx2\Assets\Mods\JYX2\Configs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06EB4E20-B7E6-4C33-AB5C-8F46C3E14307}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8209E7-A7DF-4B12-BE4C-645145AD0E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1720" yWindow="1990" windowWidth="19140" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11085" yWindow="1875" windowWidth="25350" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -56,143 +56,207 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
-        <charset val="134"/>
       </rPr>
       <t>备注</t>
     </r>
   </si>
   <si>
-    <t>MAX_ROLE_LEVEL</t>
-  </si>
-  <si>
-    <t>角色最大等级</t>
-  </si>
-  <si>
     <t>MAX_ROLE_TILI</t>
   </si>
   <si>
-    <t>角色最大体力值</t>
-  </si>
-  <si>
     <t>MAX_POISON</t>
   </si>
   <si>
-    <t>最大中毒</t>
-  </si>
-  <si>
     <t>MAX_USE_POISON</t>
   </si>
   <si>
-    <t>最大用毒</t>
-  </si>
-  <si>
     <t>MAX_HEAL</t>
   </si>
   <si>
-    <t>最大医疗</t>
-  </si>
-  <si>
     <t>MAX_DEPOISON</t>
   </si>
   <si>
-    <t>最大解毒</t>
-  </si>
-  <si>
     <t>MAX_ANTIPOISON</t>
   </si>
   <si>
-    <t>最大抗毒</t>
-  </si>
-  <si>
     <t>MAX_HURT</t>
   </si>
   <si>
-    <t>最大受伤程度</t>
-  </si>
-  <si>
     <t>GAME_START_MUSIC_ID</t>
   </si>
   <si>
-    <t>游戏开场音乐</t>
-  </si>
-  <si>
     <t>MAX_ROLE_WEAPON_ATTR</t>
   </si>
   <si>
-    <t>最大武器熟练度</t>
-  </si>
-  <si>
     <t>MAX_ROLE_HP</t>
   </si>
   <si>
-    <t>生命上限</t>
-  </si>
-  <si>
     <t>MAX_ROLE_MP</t>
   </si>
   <si>
-    <t>内力上限</t>
-  </si>
-  <si>
     <t>MAX_ROLE_ATTACK</t>
   </si>
   <si>
-    <t>最大攻击</t>
-  </si>
-  <si>
     <t>MAX_ROLE_DEFENCE</t>
   </si>
   <si>
-    <t>最大防御</t>
-  </si>
-  <si>
     <t>MAX_ROLE_QINGGONG</t>
   </si>
   <si>
-    <t>最大轻功</t>
-  </si>
-  <si>
     <t>MAX_ROLE_ATK_POISON</t>
   </si>
   <si>
-    <t>最大攻击带毒</t>
-  </si>
-  <si>
     <t>MAX_ROLE_SHENGWANG</t>
   </si>
   <si>
-    <t>最大声望</t>
-  </si>
-  <si>
     <t>MAX_ROLE_PINDE</t>
   </si>
   <si>
-    <t>最大品德值</t>
-  </si>
-  <si>
     <t>MAX_ROLE_ZIZHI</t>
   </si>
   <si>
-    <t>最大资质</t>
-  </si>
-  <si>
     <t>MAX_WUGONG_LEVEL</t>
   </si>
   <si>
-    <t>最大技能等级</t>
-  </si>
-  <si>
     <t>MONEY_ID</t>
+  </si>
+  <si>
+    <t>MAX_TEAMCOUNT</t>
+  </si>
+  <si>
+    <t>MAX_SKILL_COUNT</t>
+  </si>
+  <si>
+    <t>MAX_BATTLE_TEAMMATE_COUNT</t>
+  </si>
+  <si>
+    <t>WORLD_MAP_ID</t>
+  </si>
+  <si>
+    <t>50, 150, 300, 500, 750, 1050, 1400, 1800, 2250, 2750, 3850, 5050, 6350, 7750, 9250, 10850, 12550, 14350, 16750, 18250, 21400, 24700, 28150, 31750, 35500, 39400, 43450, 47650, 52000, 60000</t>
+  </si>
+  <si>
+    <t>升级经验，英文逗号分割</t>
+  </si>
+  <si>
+    <t>PLAYER_MOVE_SPEED</t>
+  </si>
+  <si>
+    <t>主角移动速度</t>
+  </si>
+  <si>
+    <t>PLAYER_MOVE_SPEED_WORLD_MAP</t>
+  </si>
+  <si>
+    <t>大地图移动速度</t>
+  </si>
+  <si>
+    <t>SAVE_COUNT</t>
+  </si>
+  <si>
+    <t>游戏支持存档的数量</t>
+  </si>
+  <si>
+    <t>CAM_SMOOTHING</t>
+  </si>
+  <si>
+    <t>镜头平滑系数</t>
+  </si>
+  <si>
+    <t>LuaConfigGen</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>Settings</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_number</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>L_string</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>인물 최대 등급</t>
+  </si>
+  <si>
+    <t>인물 최대 체력</t>
+  </si>
+  <si>
+    <t>최대 중독</t>
+  </si>
+  <si>
+    <t>최대 독술</t>
+  </si>
+  <si>
+    <t>최대 의술</t>
+  </si>
+  <si>
+    <t>최대 해독</t>
+  </si>
+  <si>
+    <t>최대 항독</t>
+  </si>
+  <si>
+    <t>최대 부상 정도</t>
+  </si>
+  <si>
+    <t>게임 오프닝 음악</t>
+  </si>
+  <si>
+    <t>최대 무기 숙련도</t>
+  </si>
+  <si>
+    <t>생명력 상한</t>
+  </si>
+  <si>
+    <t>내력 상한</t>
+  </si>
+  <si>
+    <t>최대 공격력</t>
+  </si>
+  <si>
+    <t>최대 방어력</t>
+  </si>
+  <si>
+    <t>최대 경공</t>
+  </si>
+  <si>
+    <t>공격 시 최대 중독</t>
+  </si>
+  <si>
+    <t>최대 성망</t>
+  </si>
+  <si>
+    <t>최대 인품</t>
+  </si>
+  <si>
+    <t>최대 자질</t>
+  </si>
+  <si>
+    <t>최대 무공 등급</t>
+  </si>
+  <si>
+    <t>최대 일행 인원</t>
+  </si>
+  <si>
+    <t>최대 습득 가능 무공 수</t>
+  </si>
+  <si>
+    <t>최대 속성 값</t>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
       </rPr>
-      <t>银两道具</t>
+      <t>은량</t>
     </r>
     <r>
       <rPr>
@@ -203,43 +267,17 @@
       </rPr>
       <t>ID</t>
     </r>
-  </si>
-  <si>
-    <t>MAX_TEAMCOUNT</t>
-  </si>
-  <si>
-    <t>最大队伍人数</t>
-  </si>
-  <si>
-    <t>MAX_SKILL_COUNT</t>
-  </si>
-  <si>
-    <t>角色最大技能数量</t>
-  </si>
-  <si>
-    <t>MAX_ROLE_ATTRIBUTE</t>
-  </si>
-  <si>
-    <t>角色最大属性值</t>
-  </si>
-  <si>
-    <t>MAX_BATTLE_TEAMMATE_COUNT</t>
-  </si>
-  <si>
-    <t>最大战斗上场人数</t>
-  </si>
-  <si>
-    <t>WORLD_MAP_ID</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <r>
       <rPr>
         <sz val="10"/>
         <color rgb="FF000000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
+        <rFont val="Arial Unicode MS"/>
+        <charset val="129"/>
       </rPr>
-      <t>世界地图</t>
+      <t>세계지도</t>
     </r>
     <r>
       <rPr>
@@ -250,54 +288,22 @@
       </rPr>
       <t>ID</t>
     </r>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>최대 전투가능 일행 인원</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>LEVEL_UP_EXP</t>
-  </si>
-  <si>
-    <t>50, 150, 300, 500, 750, 1050, 1400, 1800, 2250, 2750, 3850, 5050, 6350, 7750, 9250, 10850, 12550, 14350, 16750, 18250, 21400, 24700, 28150, 31750, 35500, 39400, 43450, 47650, 52000, 60000</t>
-  </si>
-  <si>
-    <t>升级经验，英文逗号分割</t>
-  </si>
-  <si>
-    <t>PLAYER_MOVE_SPEED</t>
-  </si>
-  <si>
-    <t>主角移动速度</t>
-  </si>
-  <si>
-    <t>PLAYER_MOVE_SPEED_WORLD_MAP</t>
-  </si>
-  <si>
-    <t>大地图移动速度</t>
-  </si>
-  <si>
-    <t>SAVE_COUNT</t>
-  </si>
-  <si>
-    <t>游戏支持存档的数量</t>
-  </si>
-  <si>
-    <t>CAM_SMOOTHING</t>
-  </si>
-  <si>
-    <t>镜头平滑系数</t>
-  </si>
-  <si>
-    <t>LuaConfigGen</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>Settings</t>
+    <t>MAX_ROLE_LEVEL</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
-    <t>L_number</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>L_string</t>
+    <t>MAX_ROLE_ATTRIBUTE</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -305,7 +311,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="13">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -324,7 +330,6 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -337,13 +342,11 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -370,6 +373,26 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial Unicode MS"/>
+      <charset val="129"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -391,7 +414,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -426,9 +449,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -709,28 +738,28 @@
   <dimension ref="A1:H83"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="12.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="8.1796875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.90625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.453125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.54296875" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.1796875" customWidth="1"/>
+    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="11" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -748,15 +777,15 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8" ht="13.5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8">
       <c r="A3" s="13" t="s">
-        <v>72</v>
+        <v>43</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="C3" s="13" t="s">
-        <v>73</v>
+        <v>44</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -764,7 +793,7 @@
       <c r="G3" s="6"/>
       <c r="H3" s="7"/>
     </row>
-    <row r="4" spans="1:8" ht="13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8">
       <c r="A4" s="3" t="s">
         <v>0</v>
       </c>
@@ -775,441 +804,441 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8">
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>7</v>
+      <c r="B5" s="11" t="s">
+        <v>72</v>
       </c>
       <c r="C5" s="1">
         <v>30</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1">
         <v>1</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1">
         <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1">
         <v>2</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1">
         <v>3</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="C8" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1">
         <v>4</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C9" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1">
         <v>5</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="C10" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1">
         <v>6</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>12</v>
       </c>
       <c r="C11" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1">
         <v>7</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="C12" s="1">
         <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1">
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="C13" s="1">
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1">
         <v>9</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C14" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1">
         <v>10</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="13" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1">
         <v>11</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="C16" s="1">
-        <v>999</v>
+        <v>9999</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>12</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>31</v>
+        <v>18</v>
       </c>
       <c r="C17" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>13</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C18" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>14</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="C19" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>15</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="C20" s="1">
         <v>100</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>16</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>39</v>
+        <v>22</v>
       </c>
       <c r="C21" s="1">
         <v>200</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>17</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C22" s="1">
         <v>100</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>18</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>24</v>
       </c>
       <c r="C23" s="1">
         <v>100</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>19</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>45</v>
+        <v>25</v>
       </c>
       <c r="C24" s="1">
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>20</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>47</v>
+        <v>26</v>
       </c>
       <c r="C25" s="1">
         <v>174</v>
       </c>
-      <c r="D25" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="D25" s="14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>21</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>49</v>
+        <v>27</v>
       </c>
       <c r="C26" s="1">
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>51</v>
+        <v>28</v>
       </c>
       <c r="C27" s="1">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="1" t="s">
-        <v>53</v>
+      <c r="B28" s="11" t="s">
+        <v>73</v>
       </c>
       <c r="C28" s="1">
-        <v>100</v>
+        <v>999</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>24</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>55</v>
+        <v>29</v>
       </c>
       <c r="C29" s="1">
         <v>6</v>
       </c>
-      <c r="D29" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+      <c r="D29" s="15" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>25</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C30" s="1">
         <v>1000</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="37.5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="38.25">
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="1" t="s">
-        <v>59</v>
+      <c r="B31" s="11" t="s">
+        <v>71</v>
       </c>
       <c r="C31" s="10" t="s">
-        <v>60</v>
+        <v>31</v>
       </c>
       <c r="D31" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>33</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>35</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>37</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" ht="13" x14ac:dyDescent="0.25">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2" ht="13" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2">
       <c r="B83" s="9"/>
     </row>
   </sheetData>

--- a/jyx2/Assets/Mods/JYX2/Configs/游戏设置.xlsx
+++ b/jyx2/Assets/Mods/JYX2/Configs/游戏设置.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10811"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Develop\jynew-20230510\jyx2\Assets\Mods\JYX2\Configs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mirr/Study/Games/Jynew/jynew/jyx2/Assets/Mods/JYX2/Configs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE8209E7-A7DF-4B12-BE4C-645145AD0E20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9CC2CFB-6D5D-6842-81FD-D4185EA796C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11085" yWindow="1875" windowWidth="25350" windowHeight="17535" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4040" yWindow="1580" windowWidth="25360" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="战斗数据" sheetId="1" r:id="rId1"/>
@@ -56,6 +56,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="宋体"/>
+        <charset val="134"/>
       </rPr>
       <t>备注</t>
     </r>
@@ -131,9 +132,6 @@
   </si>
   <si>
     <t>WORLD_MAP_ID</t>
-  </si>
-  <si>
-    <t>50, 150, 300, 500, 750, 1050, 1400, 1800, 2250, 2750, 3850, 5050, 6350, 7750, 9250, 10850, 12550, 14350, 16750, 18250, 21400, 24700, 28150, 31750, 35500, 39400, 43450, 47650, 52000, 60000</t>
   </si>
   <si>
     <t>升级经验，英文逗号分割</t>
@@ -275,7 +273,7 @@
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Arial Unicode MS"/>
-        <charset val="129"/>
+        <family val="2"/>
       </rPr>
       <t>세계지도</t>
     </r>
@@ -304,6 +302,10 @@
   </si>
   <si>
     <t>MAX_ROLE_ATTRIBUTE</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>50, 150, 300, 500, 750, 1050, 1400, 1800, 2250, 2750, 3850, 5050, 6350, 7750, 9250, 10850, 12550, 14350, 16750, 18250, 21400, 24700, 28150, 31750, 35500, 39400, 43450, 47650, 52000, 60000, 70000, 80000, 90000, 100000, 130000, 150000, 180000, 200000, 250000, 300000</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
@@ -330,6 +332,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -342,11 +345,13 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
       <color indexed="8"/>
       <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <sz val="10"/>
@@ -391,7 +396,7 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial Unicode MS"/>
-      <charset val="129"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -437,9 +442,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -454,6 +456,9 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -737,29 +742,29 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H83"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1640625" defaultRowHeight="13"/>
   <cols>
-    <col min="1" max="1" width="8.140625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="33.85546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="65.42578125" style="1" customWidth="1"/>
-    <col min="4" max="4" width="28.5703125" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="8.1640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="33.83203125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="65.5" style="1" customWidth="1"/>
+    <col min="4" max="4" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.1640625" customWidth="1"/>
     <col min="8" max="8" width="91" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B1" s="12" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+    </row>
+    <row r="2" spans="1:8" ht="14">
       <c r="A2" s="4" t="s">
         <v>3</v>
       </c>
@@ -777,15 +782,15 @@
       <c r="G2" s="6"/>
       <c r="H2" s="7"/>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="13" t="s">
+    <row r="3" spans="1:8" ht="14">
+      <c r="A3" s="12" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="B3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="C3" s="13" t="s">
-        <v>44</v>
+      <c r="C3" s="12" t="s">
+        <v>43</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="6"/>
@@ -804,21 +809,21 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" ht="14">
       <c r="A5" s="1">
         <v>0</v>
       </c>
-      <c r="B5" s="11" t="s">
-        <v>72</v>
+      <c r="B5" s="10" t="s">
+        <v>71</v>
       </c>
       <c r="C5" s="1">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="14">
       <c r="A6" s="1">
         <v>1</v>
       </c>
@@ -829,10 +834,10 @@
         <v>100</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="14">
       <c r="A7" s="1">
         <v>2</v>
       </c>
@@ -843,10 +848,10 @@
         <v>999</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="14">
       <c r="A8" s="1">
         <v>3</v>
       </c>
@@ -857,10 +862,10 @@
         <v>999</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="14">
       <c r="A9" s="1">
         <v>4</v>
       </c>
@@ -871,10 +876,10 @@
         <v>999</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="14">
       <c r="A10" s="1">
         <v>5</v>
       </c>
@@ -885,10 +890,10 @@
         <v>999</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="14">
       <c r="A11" s="1">
         <v>6</v>
       </c>
@@ -899,10 +904,10 @@
         <v>999</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="14">
       <c r="A12" s="1">
         <v>7</v>
       </c>
@@ -913,10 +918,10 @@
         <v>100</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="14">
       <c r="A13" s="1">
         <v>8</v>
       </c>
@@ -927,10 +932,10 @@
         <v>16</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="14">
       <c r="A14" s="1">
         <v>9</v>
       </c>
@@ -941,10 +946,10 @@
         <v>999</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="14">
       <c r="A15" s="1">
         <v>10</v>
       </c>
@@ -955,10 +960,10 @@
         <v>9999</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="14">
       <c r="A16" s="1">
         <v>11</v>
       </c>
@@ -969,10 +974,10 @@
         <v>9999</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="14">
       <c r="A17" s="1">
         <v>12</v>
       </c>
@@ -983,10 +988,10 @@
         <v>999</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" ht="14">
       <c r="A18" s="1">
         <v>13</v>
       </c>
@@ -997,10 +1002,10 @@
         <v>999</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="14">
       <c r="A19" s="1">
         <v>14</v>
       </c>
@@ -1011,10 +1016,10 @@
         <v>999</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" ht="14">
       <c r="A20" s="1">
         <v>15</v>
       </c>
@@ -1022,13 +1027,13 @@
         <v>21</v>
       </c>
       <c r="C20" s="1">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="14">
       <c r="A21" s="1">
         <v>16</v>
       </c>
@@ -1039,10 +1044,10 @@
         <v>200</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" ht="14">
       <c r="A22" s="1">
         <v>17</v>
       </c>
@@ -1053,10 +1058,10 @@
         <v>100</v>
       </c>
       <c r="D22" s="8" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="14">
       <c r="A23" s="1">
         <v>18</v>
       </c>
@@ -1067,10 +1072,10 @@
         <v>100</v>
       </c>
       <c r="D23" s="8" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" ht="14">
       <c r="A24" s="1">
         <v>19</v>
       </c>
@@ -1081,10 +1086,10 @@
         <v>10</v>
       </c>
       <c r="D24" s="8" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" ht="16">
       <c r="A25" s="1">
         <v>20</v>
       </c>
@@ -1094,11 +1099,11 @@
       <c r="C25" s="1">
         <v>174</v>
       </c>
-      <c r="D25" s="14" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" ht="14">
       <c r="A26" s="1">
         <v>21</v>
       </c>
@@ -1109,10 +1114,10 @@
         <v>6</v>
       </c>
       <c r="D26" s="8" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="14">
       <c r="A27" s="1">
         <v>22</v>
       </c>
@@ -1123,24 +1128,24 @@
         <v>20</v>
       </c>
       <c r="D27" s="8" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="14">
       <c r="A28" s="1">
         <v>23</v>
       </c>
-      <c r="B28" s="11" t="s">
-        <v>73</v>
+      <c r="B28" s="10" t="s">
+        <v>72</v>
       </c>
       <c r="C28" s="1">
         <v>999</v>
       </c>
       <c r="D28" s="8" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="16">
       <c r="A29" s="1">
         <v>24</v>
       </c>
@@ -1150,11 +1155,11 @@
       <c r="C29" s="1">
         <v>6</v>
       </c>
-      <c r="D29" s="15" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="14" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" ht="16">
       <c r="A30" s="1">
         <v>25</v>
       </c>
@@ -1165,49 +1170,49 @@
         <v>1000</v>
       </c>
       <c r="D30" s="8" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="38.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="56">
       <c r="A31" s="1">
         <v>26</v>
       </c>
-      <c r="B31" s="11" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="10" t="s">
+      <c r="B31" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="C31" s="15" t="s">
+        <v>73</v>
+      </c>
+      <c r="D31" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="D31" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+    </row>
+    <row r="32" spans="1:4" ht="14">
       <c r="A32" s="1">
         <v>27</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C32" s="1">
         <v>6</v>
       </c>
       <c r="D32" s="8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="14">
       <c r="A33" s="1">
         <v>28</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C33" s="1">
         <v>10</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -1215,30 +1220,30 @@
         <v>29</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C34" s="1">
         <v>3</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" ht="14">
       <c r="A35" s="1">
         <v>30</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C35" s="1">
         <v>3</v>
       </c>
       <c r="D35" s="8" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="2:2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" ht="14">
       <c r="B83" s="9"/>
     </row>
   </sheetData>
